--- a/DRAFT/Spec APP Integrasi.xlsx
+++ b/DRAFT/Spec APP Integrasi.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08AA29E-AD70-4DC4-8CF7-58009D17A103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="25560" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="User Story" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="csv" sheetId="2" r:id="rId5"/>
+    <sheet name="User Story" sheetId="1" r:id="rId1"/>
+    <sheet name="csv" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -147,13 +156,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">5. Nurcholis yang deploykan di staging iclinic. booking port public </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>http://semar.taskhub.id:8057/</t>
     </r>
@@ -162,37 +172,49 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="&quot;Liberation Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,61 +222,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -444,20 +461,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -473,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -481,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -489,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -497,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -508,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -519,7 +544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -530,17 +555,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -548,7 +573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -556,12 +581,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -569,7 +594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -577,102 +602,103 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B19"/>
-    <hyperlink r:id="rId2" ref="B22"/>
-    <hyperlink r:id="rId3" ref="A32"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
@@ -692,7 +718,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="6"/>
@@ -712,7 +738,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -733,6 +759,6 @@
       <c r="R3" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DRAFT/Spec APP Integrasi.xlsx
+++ b/DRAFT/Spec APP Integrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08AA29E-AD70-4DC4-8CF7-58009D17A103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327E8DF-05B1-4F2F-9DBD-0B015135807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="25560" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -216,6 +216,13 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,10 +241,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -253,8 +261,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -618,7 +628,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
